--- a/doc/images.xlsx
+++ b/doc/images.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="7995" windowHeight="4260" activeTab="5"/>
   </bookViews>
@@ -1510,6 +1510,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1795,6 +1796,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1934,6 +1936,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2062,6 +2065,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2319,5 +2323,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>